--- a/滴水逆向/课后练习体.xlsx
+++ b/滴水逆向/课后练习体.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="213">
   <si>
     <t>1、</t>
   </si>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">     </t>
     </r>
     <r>
@@ -339,15 +347,342 @@
   <si>
     <t>——————————</t>
   </si>
+  <si>
+    <t>十六进制加法表</t>
+  </si>
+  <si>
+    <t>4+4=8</t>
+  </si>
+  <si>
+    <t>3+5=8</t>
+  </si>
+  <si>
+    <t>4+5=9</t>
+  </si>
+  <si>
+    <t>5+5=A</t>
+  </si>
+  <si>
+    <t>2+6=8</t>
+  </si>
+  <si>
+    <t>3+6=9</t>
+  </si>
+  <si>
+    <t>4+6=A</t>
+  </si>
+  <si>
+    <t>5+6=B</t>
+  </si>
+  <si>
+    <t>6+6=C</t>
+  </si>
+  <si>
+    <t>1+7=8</t>
+  </si>
+  <si>
+    <t>2+7=9</t>
+  </si>
+  <si>
+    <t>3+7=A</t>
+  </si>
+  <si>
+    <t>4+7=B</t>
+  </si>
+  <si>
+    <t>5+7=C</t>
+  </si>
+  <si>
+    <t>6+7=D</t>
+  </si>
+  <si>
+    <t>7+7=E</t>
+  </si>
+  <si>
+    <t>1+8=8</t>
+  </si>
+  <si>
+    <t>2+8=A</t>
+  </si>
+  <si>
+    <t>3+8=B</t>
+  </si>
+  <si>
+    <t>4+8=C</t>
+  </si>
+  <si>
+    <t>5+8=D</t>
+  </si>
+  <si>
+    <t>6+8=E</t>
+  </si>
+  <si>
+    <t>7+8=F</t>
+  </si>
+  <si>
+    <t>8+8=10</t>
+  </si>
+  <si>
+    <t>1+9=9</t>
+  </si>
+  <si>
+    <t>2+9=B</t>
+  </si>
+  <si>
+    <t>3+9=C</t>
+  </si>
+  <si>
+    <t>4+9=D</t>
+  </si>
+  <si>
+    <t>5+9=E</t>
+  </si>
+  <si>
+    <t>6+9=F</t>
+  </si>
+  <si>
+    <t>7+9=10</t>
+  </si>
+  <si>
+    <t>8+9=11</t>
+  </si>
+  <si>
+    <t>9+9=12</t>
+  </si>
+  <si>
+    <t>1+10=B</t>
+  </si>
+  <si>
+    <t>2+10=C</t>
+  </si>
+  <si>
+    <t>3+10=D</t>
+  </si>
+  <si>
+    <t>4+10=E</t>
+  </si>
+  <si>
+    <t>5+10=F</t>
+  </si>
+  <si>
+    <t>6+10=10</t>
+  </si>
+  <si>
+    <t>7+10=11</t>
+  </si>
+  <si>
+    <t>8+10=12</t>
+  </si>
+  <si>
+    <t>9+10=13</t>
+  </si>
+  <si>
+    <t>10+10=14</t>
+  </si>
+  <si>
+    <t>1+11=C</t>
+  </si>
+  <si>
+    <t>2+11=D</t>
+  </si>
+  <si>
+    <t>3+11=E</t>
+  </si>
+  <si>
+    <t>4+11=F</t>
+  </si>
+  <si>
+    <t>5+11=10</t>
+  </si>
+  <si>
+    <t>6+11=11</t>
+  </si>
+  <si>
+    <t>7+11=12</t>
+  </si>
+  <si>
+    <t>8+11=13</t>
+  </si>
+  <si>
+    <t>9+11=14</t>
+  </si>
+  <si>
+    <t>10+11=15</t>
+  </si>
+  <si>
+    <t>11+11=16</t>
+  </si>
+  <si>
+    <t>1+12=D</t>
+  </si>
+  <si>
+    <t>2+12=E</t>
+  </si>
+  <si>
+    <t>3+12=F</t>
+  </si>
+  <si>
+    <t>4+12=10</t>
+  </si>
+  <si>
+    <t>5+12=11</t>
+  </si>
+  <si>
+    <t>6+12=12</t>
+  </si>
+  <si>
+    <t>7+12=13</t>
+  </si>
+  <si>
+    <t>8+12=14</t>
+  </si>
+  <si>
+    <t>9+12=15</t>
+  </si>
+  <si>
+    <t>10+12=16</t>
+  </si>
+  <si>
+    <t>11+12=17</t>
+  </si>
+  <si>
+    <t>12+12=18</t>
+  </si>
+  <si>
+    <t>1+13=E</t>
+  </si>
+  <si>
+    <t>2+13=F</t>
+  </si>
+  <si>
+    <t>3+13=10</t>
+  </si>
+  <si>
+    <t>4+13=11</t>
+  </si>
+  <si>
+    <t>5+13=12</t>
+  </si>
+  <si>
+    <t>6+13=13</t>
+  </si>
+  <si>
+    <t>7+13=14</t>
+  </si>
+  <si>
+    <t>8+13=15</t>
+  </si>
+  <si>
+    <t>9+13=16</t>
+  </si>
+  <si>
+    <t>10+13=17</t>
+  </si>
+  <si>
+    <t>11+13=18</t>
+  </si>
+  <si>
+    <t>12+13=19</t>
+  </si>
+  <si>
+    <t>13+13=1A</t>
+  </si>
+  <si>
+    <t>1+14=F</t>
+  </si>
+  <si>
+    <t>2+14=10</t>
+  </si>
+  <si>
+    <t>3+14=11</t>
+  </si>
+  <si>
+    <t>4+14=12</t>
+  </si>
+  <si>
+    <t>5+14=13</t>
+  </si>
+  <si>
+    <t>6+14=14</t>
+  </si>
+  <si>
+    <t>7+14=15</t>
+  </si>
+  <si>
+    <t>8+14=16</t>
+  </si>
+  <si>
+    <t>9+14=17</t>
+  </si>
+  <si>
+    <t>10+14=18</t>
+  </si>
+  <si>
+    <t>11+14=19</t>
+  </si>
+  <si>
+    <t>12+14=1A</t>
+  </si>
+  <si>
+    <t>13+14=1B</t>
+  </si>
+  <si>
+    <t>14+14=1C</t>
+  </si>
+  <si>
+    <t>1+15=10</t>
+  </si>
+  <si>
+    <t>2+15=11</t>
+  </si>
+  <si>
+    <t>3+15=12</t>
+  </si>
+  <si>
+    <t>4+15=13</t>
+  </si>
+  <si>
+    <t>5+15=14</t>
+  </si>
+  <si>
+    <t>6+15=15</t>
+  </si>
+  <si>
+    <t>7+15=16</t>
+  </si>
+  <si>
+    <t>8+15=17</t>
+  </si>
+  <si>
+    <t>9+15=18</t>
+  </si>
+  <si>
+    <t>10+15=19</t>
+  </si>
+  <si>
+    <t>11+15=1A</t>
+  </si>
+  <si>
+    <t>12+15=1B</t>
+  </si>
+  <si>
+    <t>13+15=1C</t>
+  </si>
+  <si>
+    <t>14+15=1D</t>
+  </si>
+  <si>
+    <t>15+15=1E</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -374,11 +709,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,8 +746,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,40 +763,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,7 +778,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,7 +823,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -489,15 +830,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,7 +862,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,19 +946,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,145 +1042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,17 +1071,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,17 +1095,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,149 +1176,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,11 +1328,26 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1320,10 +1670,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Q181"/>
+  <dimension ref="A1:U181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L94" sqref="L94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="R117" sqref="R117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2201,7 +2551,7 @@
       <c r="H35" s="1">
         <v>1010</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="1">
         <v>1100</v>
       </c>
       <c r="J35" s="1">
@@ -2314,7 +2664,7 @@
       <c r="H41" s="1">
         <v>8</v>
       </c>
-      <c r="P41" s="3"/>
+      <c r="P41" s="1"/>
     </row>
     <row r="42" ht="15.6" spans="1:16">
       <c r="A42" s="2" t="s">
@@ -2377,7 +2727,7 @@
       <c r="F44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H44" s="1"/>
@@ -2585,186 +2935,186 @@
       <c r="M53" s="1"/>
     </row>
     <row r="54" ht="15.6" spans="1:13">
-      <c r="A54" s="3">
+      <c r="A54" s="1">
         <v>30</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="1">
         <v>31</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="1">
         <v>32</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="1">
         <v>33</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="1">
         <v>34</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="1">
         <v>35</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="1">
         <v>36</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="1">
         <v>37</v>
       </c>
-      <c r="I54" s="3"/>
+      <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
     <row r="55" ht="15.6" spans="1:13">
-      <c r="A55" s="3">
+      <c r="A55" s="1">
         <v>40</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="1">
         <v>41</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="1">
         <v>42</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="1">
         <v>43</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="1">
         <v>44</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="1">
         <v>45</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="1">
         <v>46</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="1">
         <v>47</v>
       </c>
-      <c r="I55" s="3"/>
+      <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
     <row r="56" ht="15.6" spans="1:13">
-      <c r="A56" s="3">
+      <c r="A56" s="1">
         <v>50</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="1">
         <v>51</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="1">
         <v>52</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="1">
         <v>53</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="1">
         <v>54</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="1">
         <v>55</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="1">
         <v>56</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="1">
         <v>57</v>
       </c>
-      <c r="I56" s="3"/>
+      <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
     <row r="57" ht="15.6" spans="1:13">
-      <c r="A57" s="3">
+      <c r="A57" s="1">
         <v>60</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="1">
         <v>61</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="1">
         <v>62</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="1">
         <v>63</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="1">
         <v>64</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="1">
         <v>65</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="1">
         <v>66</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="1">
         <v>67</v>
       </c>
-      <c r="I57" s="3"/>
+      <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
     <row r="58" ht="15.6" spans="1:13">
-      <c r="A58" s="3">
+      <c r="A58" s="1">
         <v>70</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="1">
         <v>71</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="1">
         <v>72</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="1">
         <v>73</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="1">
         <v>74</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="1">
         <v>75</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="1">
         <v>76</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="1">
         <v>77</v>
       </c>
-      <c r="I58" s="3"/>
+      <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
     <row r="59" ht="15.6" spans="1:13">
-      <c r="A59" s="3">
+      <c r="A59" s="1">
         <v>100</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="1">
         <v>101</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="1">
         <v>102</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="1">
         <v>103</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="1">
         <v>104</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="1">
         <v>105</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="1">
         <v>106</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="1">
         <v>107</v>
       </c>
-      <c r="I59" s="3"/>
+      <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -2849,15 +3199,15 @@
       <c r="M65" s="1"/>
     </row>
     <row r="66" ht="15.6" spans="2:13">
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -2865,17 +3215,17 @@
       <c r="M66" s="1"/>
     </row>
     <row r="67" ht="15.6" spans="2:13">
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -2883,19 +3233,19 @@
       <c r="M67" s="1"/>
     </row>
     <row r="68" ht="15.6" spans="2:13">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -2903,21 +3253,21 @@
       <c r="M68" s="1"/>
     </row>
     <row r="69" ht="15.6" spans="2:13">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -2925,23 +3275,23 @@
       <c r="M69" s="1"/>
     </row>
     <row r="70" ht="15.6" spans="2:13">
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -2949,25 +3299,25 @@
       <c r="M70" s="1"/>
     </row>
     <row r="71" ht="15.6" spans="2:13">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H71" s="4"/>
+      <c r="H71" s="3"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -2976,25 +3326,25 @@
     </row>
     <row r="72" ht="15.6" spans="1:13">
       <c r="A72" s="1"/>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="3" t="s">
         <v>63</v>
       </c>
       <c r="I72" s="1"/>
@@ -3086,120 +3436,120 @@
       <c r="M78" s="1"/>
     </row>
     <row r="79" ht="15.6" spans="2:13">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
     <row r="80" ht="15.6" spans="2:13">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
     <row r="81" ht="15.6" spans="2:13">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
     <row r="82" ht="15.6" spans="2:13">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
     <row r="83" ht="15.6" spans="2:13">
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
     <row r="84" ht="15.6" spans="2:13">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H84" s="4"/>
+      <c r="H84" s="3"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="L84" s="1"/>
@@ -3207,25 +3557,25 @@
     </row>
     <row r="85" ht="15.6" spans="1:13">
       <c r="A85" s="1"/>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G85" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H85" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I85" s="1"/>
@@ -3375,7 +3725,7 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="3"/>
+      <c r="G92" s="1"/>
       <c r="H92" s="1">
         <v>2460</v>
       </c>
@@ -3450,7 +3800,9 @@
       <c r="M96" s="1"/>
     </row>
     <row r="97" ht="15.6" spans="1:13">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3479,275 +3831,659 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" ht="15.6" spans="1:13">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-    </row>
-    <row r="100" ht="15.6" spans="1:13">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-    </row>
-    <row r="101" ht="15.6" spans="1:13">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-    </row>
-    <row r="102" ht="15.6" spans="1:13">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-    </row>
-    <row r="103" ht="15.6" spans="1:13">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-    </row>
-    <row r="104" ht="15.6" spans="1:13">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-    </row>
-    <row r="105" ht="15.6" spans="1:13">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-    </row>
-    <row r="106" ht="15.6" spans="1:13">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-    </row>
-    <row r="107" ht="15.6" spans="1:13">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-    </row>
-    <row r="108" ht="15.6" spans="1:13">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-    </row>
-    <row r="109" ht="15.6" spans="1:13">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-    </row>
-    <row r="110" ht="15.6" spans="1:13">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-    </row>
-    <row r="111" ht="15.6" spans="1:13">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-    </row>
-    <row r="112" ht="15.6" spans="1:13">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-    </row>
-    <row r="113" ht="15.6" spans="1:13">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-    </row>
-    <row r="114" ht="15.6" spans="1:13">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-    </row>
-    <row r="115" ht="15.6" spans="1:13">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-    </row>
-    <row r="116" ht="15.6" spans="1:13">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
+    <row r="99" spans="1:21">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+    </row>
+    <row r="100" ht="15.6" spans="1:21">
+      <c r="A100" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+    </row>
+    <row r="101" ht="15.6" spans="1:21">
+      <c r="A101" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+    </row>
+    <row r="102" ht="15.6" spans="1:21">
+      <c r="A102" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+    </row>
+    <row r="103" ht="15.6" spans="1:21">
+      <c r="A103" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+    </row>
+    <row r="104" ht="15.6" spans="1:21">
+      <c r="A104" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+    </row>
+    <row r="105" ht="15.6" spans="1:21">
+      <c r="A105" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+    </row>
+    <row r="106" ht="15.6" spans="1:21">
+      <c r="A106" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+    </row>
+    <row r="107" ht="15.6" spans="1:21">
+      <c r="A107" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+    </row>
+    <row r="108" ht="15.6" spans="1:21">
+      <c r="A108" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+    </row>
+    <row r="109" ht="15.6" spans="1:21">
+      <c r="A109" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+    </row>
+    <row r="110" ht="15.6" spans="1:21">
+      <c r="A110" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+    </row>
+    <row r="111" ht="15.6" spans="1:21">
+      <c r="A111" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="8"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+    </row>
+    <row r="112" ht="15.6" spans="1:21">
+      <c r="A112" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q112" s="8"/>
+      <c r="R112" s="8"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+    </row>
+    <row r="113" ht="15.6" spans="1:21">
+      <c r="A113" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q113" s="8"/>
+      <c r="R113" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="S113" s="8"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+    </row>
+    <row r="114" ht="15.6" spans="1:21">
+      <c r="A114" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="S114" s="8"/>
+      <c r="T114" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="U114" s="4"/>
+    </row>
+    <row r="115" ht="15.6" spans="1:21">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+      <c r="U115" s="9"/>
+    </row>
+    <row r="116" ht="15.6" spans="1:21">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+      <c r="U116" s="9"/>
     </row>
     <row r="117" ht="15.6" spans="1:13">
       <c r="A117" s="1"/>
